--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>4499.493520146892</v>
+        <v>4529.985585235278</v>
       </c>
       <c r="R2">
-        <v>4499.493520146892</v>
+        <v>18119.94234094111</v>
       </c>
       <c r="S2">
-        <v>0.007454472333663129</v>
+        <v>0.006794044888064806</v>
       </c>
       <c r="T2">
-        <v>0.007454472333663129</v>
+        <v>0.003631443238175967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>3044.952594000379</v>
+        <v>3268.985396620456</v>
       </c>
       <c r="R3">
-        <v>3044.952594000379</v>
+        <v>19613.91237972274</v>
       </c>
       <c r="S3">
-        <v>0.005044682199820254</v>
+        <v>0.004902804458242926</v>
       </c>
       <c r="T3">
-        <v>0.005044682199820254</v>
+        <v>0.003930851883815688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>2297.198520810403</v>
+        <v>2326.740172189989</v>
       </c>
       <c r="R4">
-        <v>2297.198520810403</v>
+        <v>13960.44103313993</v>
       </c>
       <c r="S4">
-        <v>0.003805851201171185</v>
+        <v>0.003489630789167597</v>
       </c>
       <c r="T4">
-        <v>0.003805851201171185</v>
+        <v>0.00279783170596542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>2159.939275418476</v>
+        <v>2191.970856753861</v>
       </c>
       <c r="R5">
-        <v>2159.939275418476</v>
+        <v>13151.82514052317</v>
       </c>
       <c r="S5">
-        <v>0.003578448885170028</v>
+        <v>0.003287504587797077</v>
       </c>
       <c r="T5">
-        <v>0.003578448885170028</v>
+        <v>0.002635775852791428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>3173.54820994555</v>
+        <v>3350.705842234468</v>
       </c>
       <c r="R6">
-        <v>3173.54820994555</v>
+        <v>20104.23505340681</v>
       </c>
       <c r="S6">
-        <v>0.005257731170110217</v>
+        <v>0.005025368286610035</v>
       </c>
       <c r="T6">
-        <v>0.005257731170110217</v>
+        <v>0.004029118143408096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>3815.752677350007</v>
+        <v>3850.971762472417</v>
       </c>
       <c r="R7">
-        <v>3815.752677350007</v>
+        <v>15403.88704988967</v>
       </c>
       <c r="S7">
-        <v>0.006321694350273902</v>
+        <v>0.005775664077648218</v>
       </c>
       <c r="T7">
-        <v>0.006321694350273902</v>
+        <v>0.003087114760986754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>125484.6087009285</v>
+        <v>136625.1108427848</v>
       </c>
       <c r="R8">
-        <v>125484.6087009285</v>
+        <v>819750.6650567089</v>
       </c>
       <c r="S8">
-        <v>0.2078948529813811</v>
+        <v>0.2049095120585243</v>
       </c>
       <c r="T8">
-        <v>0.2078948529813811</v>
+        <v>0.1642873886460626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>84919.48772904127</v>
+        <v>98593.13760565042</v>
       </c>
       <c r="R9">
-        <v>84919.48772904127</v>
+        <v>887338.2384508537</v>
       </c>
       <c r="S9">
-        <v>0.1406891617979967</v>
+        <v>0.1478693894150987</v>
       </c>
       <c r="T9">
-        <v>0.1406891617979967</v>
+        <v>0.1778327096944816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>64065.66788051168</v>
+        <v>70174.8665523197</v>
       </c>
       <c r="R10">
-        <v>64065.66788051168</v>
+        <v>631573.7989708772</v>
       </c>
       <c r="S10">
-        <v>0.1061398903264414</v>
+        <v>0.1052478389609831</v>
       </c>
       <c r="T10">
-        <v>0.1061398903264414</v>
+        <v>0.1265745971221881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>60237.69866098306</v>
+        <v>66110.20181703205</v>
       </c>
       <c r="R11">
-        <v>60237.69866098306</v>
+        <v>594991.8163532885</v>
       </c>
       <c r="S11">
-        <v>0.09979795639247309</v>
+        <v>0.0991516794596182</v>
       </c>
       <c r="T11">
-        <v>0.09979795639247309</v>
+        <v>0.1192431503153429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>88505.84038746402</v>
+        <v>101057.8396957689</v>
       </c>
       <c r="R12">
-        <v>88505.84038746402</v>
+        <v>909520.5572619204</v>
       </c>
       <c r="S12">
-        <v>0.1466308009072133</v>
+        <v>0.1515659346514789</v>
       </c>
       <c r="T12">
-        <v>0.1466308009072133</v>
+        <v>0.182278299538965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>106416.0287091944</v>
+        <v>116145.9421891078</v>
       </c>
       <c r="R13">
-        <v>106416.0287091944</v>
+        <v>696875.6531346467</v>
       </c>
       <c r="S13">
-        <v>0.1763032524258627</v>
+        <v>0.1741949792006665</v>
       </c>
       <c r="T13">
-        <v>0.1763032524258627</v>
+        <v>0.139661833951169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>81.7791404034799</v>
+        <v>166.6056853589125</v>
       </c>
       <c r="R14">
-        <v>81.7791404034799</v>
+        <v>999.6341121534751</v>
       </c>
       <c r="S14">
-        <v>0.0001354864357241238</v>
+        <v>0.0002498741957644581</v>
       </c>
       <c r="T14">
-        <v>0.0001354864357241238</v>
+        <v>0.000200338084356246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>55.34258569141532</v>
+        <v>120.2280983426</v>
       </c>
       <c r="R15">
-        <v>55.34258569141532</v>
+        <v>1082.0528850834</v>
       </c>
       <c r="S15">
-        <v>9.168804712415014E-05</v>
+        <v>0.0001803173722248985</v>
       </c>
       <c r="T15">
-        <v>9.168804712415014E-05</v>
+        <v>0.000216855747052053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>41.75201487163989</v>
+        <v>85.57381337002502</v>
       </c>
       <c r="R16">
-        <v>41.75201487163989</v>
+        <v>770.1643203302251</v>
       </c>
       <c r="S16">
-        <v>6.917206088679293E-05</v>
+        <v>0.0001283430859413284</v>
       </c>
       <c r="T16">
-        <v>6.917206088679293E-05</v>
+        <v>0.0001543497192608796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>39.25730228891886</v>
+        <v>80.61721168970834</v>
       </c>
       <c r="R17">
-        <v>39.25730228891886</v>
+        <v>725.5549052073751</v>
       </c>
       <c r="S17">
-        <v>6.503898105345914E-05</v>
+        <v>0.0001209092048230114</v>
       </c>
       <c r="T17">
-        <v>6.503898105345914E-05</v>
+        <v>0.0001454094833672567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>57.67983518062202</v>
+        <v>123.2336467253</v>
       </c>
       <c r="R18">
-        <v>57.67983518062202</v>
+        <v>1109.1028205277</v>
       </c>
       <c r="S18">
-        <v>9.556025220148757E-05</v>
+        <v>0.0001848250754484737</v>
       </c>
       <c r="T18">
-        <v>9.556025220148757E-05</v>
+        <v>0.0002222768628212987</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>69.35202207731446</v>
+        <v>141.6326338599625</v>
       </c>
       <c r="R19">
-        <v>69.35202207731446</v>
+        <v>849.7958031597751</v>
       </c>
       <c r="S19">
-        <v>0.0001148979829716607</v>
+        <v>0.0002124197646888218</v>
       </c>
       <c r="T19">
-        <v>0.0001148979829716607</v>
+        <v>0.0001703087772107448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>207.1482113870922</v>
+        <v>217.2638858369765</v>
       </c>
       <c r="R20">
-        <v>207.1482113870922</v>
+        <v>1303.583315021859</v>
       </c>
       <c r="S20">
-        <v>0.0003431898732243242</v>
+        <v>0.0003258510573947312</v>
       </c>
       <c r="T20">
-        <v>0.0003431898732243242</v>
+        <v>0.0002612529734180861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>140.1838853154017</v>
+        <v>156.784708615624</v>
       </c>
       <c r="R21">
-        <v>140.1838853154017</v>
+        <v>1411.062377540616</v>
       </c>
       <c r="S21">
-        <v>0.0002322476718835128</v>
+        <v>0.0002351447544487906</v>
       </c>
       <c r="T21">
-        <v>0.0002322476718835128</v>
+        <v>0.0002827930041469565</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>105.7586954301056</v>
+        <v>111.593425990281</v>
       </c>
       <c r="R22">
-        <v>105.7586954301056</v>
+        <v>1004.340833912529</v>
       </c>
       <c r="S22">
-        <v>0.0001752142248006371</v>
+        <v>0.0001673671430350763</v>
       </c>
       <c r="T22">
-        <v>0.0001752142248006371</v>
+        <v>0.0002012813651120171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>99.43953816230014</v>
+        <v>105.1297177483217</v>
       </c>
       <c r="R23">
-        <v>99.43953816230014</v>
+        <v>946.1674597348949</v>
       </c>
       <c r="S23">
-        <v>0.0001647450502559909</v>
+        <v>0.0001576729126423001</v>
       </c>
       <c r="T23">
-        <v>0.0001647450502559909</v>
+        <v>0.0001896227570257246</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>146.10418539273</v>
+        <v>160.704125406772</v>
       </c>
       <c r="R24">
-        <v>146.10418539273</v>
+        <v>1446.337128660948</v>
       </c>
       <c r="S24">
-        <v>0.0002420560454117375</v>
+        <v>0.0002410230719650507</v>
       </c>
       <c r="T24">
-        <v>0.0002420560454117375</v>
+        <v>0.0002898624668430291</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>175.6700701244165</v>
+        <v>184.6975169391785</v>
       </c>
       <c r="R25">
-        <v>175.6700701244165</v>
+        <v>1108.185101635071</v>
       </c>
       <c r="S25">
-        <v>0.0002910389073195895</v>
+        <v>0.0002770082149684621</v>
       </c>
       <c r="T25">
-        <v>0.0002910389073195895</v>
+        <v>0.000222092941481789</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>3522.829981584073</v>
+        <v>3985.963952047684</v>
       </c>
       <c r="R26">
-        <v>3522.829981584073</v>
+        <v>23915.7837122861</v>
       </c>
       <c r="S26">
-        <v>0.005836398811628946</v>
+        <v>0.005978124544299987</v>
       </c>
       <c r="T26">
-        <v>0.005836398811628946</v>
+        <v>0.004792995993780273</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>2384.012832247959</v>
+        <v>2876.401636501605</v>
       </c>
       <c r="R27">
-        <v>2384.012832247959</v>
+        <v>25887.61472851445</v>
       </c>
       <c r="S27">
-        <v>0.003949679585383671</v>
+        <v>0.004314009717423854</v>
       </c>
       <c r="T27">
-        <v>0.003949679585383671</v>
+        <v>0.005188173432867873</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>1798.56683569516</v>
+        <v>2047.313899266818</v>
       </c>
       <c r="R28">
-        <v>1798.56683569516</v>
+        <v>18425.82509340136</v>
       </c>
       <c r="S28">
-        <v>0.002979750200083833</v>
+        <v>0.003070548960887106</v>
       </c>
       <c r="T28">
-        <v>0.002979750200083833</v>
+        <v>0.003692745632642568</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1691.101188117007</v>
+        <v>1928.729496940812</v>
       </c>
       <c r="R29">
-        <v>1691.101188117007</v>
+        <v>17358.56547246731</v>
       </c>
       <c r="S29">
-        <v>0.002801708006422805</v>
+        <v>0.002892696793972235</v>
       </c>
       <c r="T29">
-        <v>0.002801708006422805</v>
+        <v>0.003478854624553526</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>2484.695384478222</v>
+        <v>2948.307991220349</v>
       </c>
       <c r="R30">
-        <v>2484.695384478222</v>
+        <v>26534.77192098314</v>
       </c>
       <c r="S30">
-        <v>0.00411648398163905</v>
+        <v>0.004421854431828366</v>
       </c>
       <c r="T30">
-        <v>0.00411648398163905</v>
+        <v>0.005317871119891821</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>2987.502454196103</v>
+        <v>3388.49524722524</v>
       </c>
       <c r="R31">
-        <v>2987.502454196103</v>
+        <v>20330.97148335144</v>
       </c>
       <c r="S31">
-        <v>0.004949502492189057</v>
+        <v>0.005082044606869723</v>
       </c>
       <c r="T31">
-        <v>0.004949502492189057</v>
+        <v>0.004074558711588614</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H32">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I32">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J32">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>9213.728254920914</v>
+        <v>9214.026193181138</v>
       </c>
       <c r="R32">
-        <v>9213.728254920914</v>
+        <v>36856.10477272455</v>
       </c>
       <c r="S32">
-        <v>0.01526471414141651</v>
+        <v>0.0138191405642246</v>
       </c>
       <c r="T32">
-        <v>0.01526471414141651</v>
+        <v>0.007386384015141638</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H33">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I33">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J33">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>6235.227503854728</v>
+        <v>6649.141923930231</v>
       </c>
       <c r="R33">
-        <v>6235.227503854728</v>
+        <v>39894.85154358139</v>
       </c>
       <c r="S33">
-        <v>0.0103301250937379</v>
+        <v>0.009972342703591474</v>
       </c>
       <c r="T33">
-        <v>0.0103301250937379</v>
+        <v>0.007995383547586285</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H34">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I34">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J34">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>4704.032314655353</v>
+        <v>4732.607750709183</v>
       </c>
       <c r="R34">
-        <v>4704.032314655353</v>
+        <v>28395.6465042551</v>
       </c>
       <c r="S34">
-        <v>0.00779333909233208</v>
+        <v>0.007097936382120212</v>
       </c>
       <c r="T34">
-        <v>0.00779333909233208</v>
+        <v>0.005690811623529511</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H35">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I35">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J35">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>4422.963038334794</v>
+        <v>4458.485906588331</v>
       </c>
       <c r="R35">
-        <v>4422.963038334794</v>
+        <v>26750.91543952999</v>
       </c>
       <c r="S35">
-        <v>0.007327681538922398</v>
+        <v>0.00668681010396464</v>
       </c>
       <c r="T35">
-        <v>0.007327681538922398</v>
+        <v>0.005361188747737085</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H36">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I36">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J36">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>6498.556044008798</v>
+        <v>6815.361950956395</v>
       </c>
       <c r="R36">
-        <v>6498.556044008798</v>
+        <v>40892.17170573837</v>
       </c>
       <c r="S36">
-        <v>0.0107663909330936</v>
+        <v>0.01022163849132905</v>
       </c>
       <c r="T36">
-        <v>0.0107663909330936</v>
+        <v>0.008195257889955381</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>55.9859543366913</v>
+        <v>55.986019</v>
       </c>
       <c r="H37">
-        <v>55.9859543366913</v>
+        <v>111.972038</v>
       </c>
       <c r="I37">
-        <v>0.06442734641821805</v>
+        <v>0.05954561425747298</v>
       </c>
       <c r="J37">
-        <v>0.06442734641821805</v>
+        <v>0.04090824144922671</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>7813.614598992051</v>
+        <v>7832.906754554026</v>
       </c>
       <c r="R37">
-        <v>7813.614598992051</v>
+        <v>31331.6270182161</v>
       </c>
       <c r="S37">
-        <v>0.01294509561871556</v>
+        <v>0.01174774601224301</v>
       </c>
       <c r="T37">
-        <v>0.01294509561871556</v>
+        <v>0.006279215625276812</v>
       </c>
     </row>
   </sheetData>
